--- a/src/analysis_examples/circadb/results_jtk/cosinor_10531133_grsf1_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10531133_grsf1_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.18236103015615418, 0.28124163109899947]</t>
+          <t>[0.1859373600902236, 0.27766530116493005]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.011152216458868e-09</v>
+        <v>8.0438877780864e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>3.011152216458868e-09</v>
+        <v>8.0438877780864e-10</v>
       </c>
       <c r="O2" t="n">
         <v>0.2956053147521924</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[0.0691842226015762, 0.5220264069028087]</t>
+          <t>[0.05660527303765317, 0.5346053564667317]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.0129693806810065</v>
+        <v>0.017765145577751</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0129693806810065</v>
+        <v>0.017765145577751</v>
       </c>
       <c r="S2" t="n">
         <v>0.4992990821263109</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.47132993034131976, 0.5272682339113021]</t>
+          <t>[0.47132234428842756, 0.5272758199641943]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>26.67315315315435</v>
       </c>
       <c r="X2" t="n">
-        <v>25.66450450450565</v>
+        <v>25.60846846846961</v>
       </c>
       <c r="Y2" t="n">
-        <v>27.68180180180304</v>
+        <v>27.73783783783908</v>
       </c>
     </row>
   </sheetData>
